--- a/Code/Results/Cases/Case_4_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_185/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.21880199531824</v>
+        <v>29.51793756855773</v>
       </c>
       <c r="C2">
-        <v>8.268261749665557</v>
+        <v>8.231041776144481</v>
       </c>
       <c r="D2">
-        <v>8.116224407948684</v>
+        <v>12.73262989164373</v>
       </c>
       <c r="E2">
-        <v>6.672962120071954</v>
+        <v>11.75721815040084</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.226386708572459</v>
+        <v>3.902069260396217</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.565923446241076</v>
+        <v>7.402687214562372</v>
       </c>
       <c r="K2">
-        <v>18.18057564941214</v>
+        <v>24.75949731911664</v>
       </c>
       <c r="L2">
-        <v>8.122170777701104</v>
+        <v>13.70527809335086</v>
       </c>
       <c r="M2">
-        <v>15.36885143046798</v>
+        <v>24.03335456071629</v>
       </c>
       <c r="N2">
-        <v>25.54125248610856</v>
+        <v>32.93702529482636</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.4342953463935</v>
+        <v>29.45590054447274</v>
       </c>
       <c r="C3">
-        <v>7.79891402628679</v>
+        <v>8.138625573431337</v>
       </c>
       <c r="D3">
-        <v>7.988637730889074</v>
+        <v>12.74395807971209</v>
       </c>
       <c r="E3">
-        <v>6.700131965141843</v>
+        <v>11.77841584113204</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.238102043578905</v>
+        <v>3.906131233762383</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.542212076331842</v>
+        <v>7.397150935697447</v>
       </c>
       <c r="K3">
-        <v>17.58227356767322</v>
+        <v>24.72093980398493</v>
       </c>
       <c r="L3">
-        <v>8.084334296346679</v>
+        <v>13.72880034044123</v>
       </c>
       <c r="M3">
-        <v>15.11784029134899</v>
+        <v>24.05348281048499</v>
       </c>
       <c r="N3">
-        <v>25.30600465623418</v>
+        <v>32.87116483055614</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.95645418786497</v>
+        <v>29.42421008718831</v>
       </c>
       <c r="C4">
-        <v>7.504556787668706</v>
+        <v>8.0838317434093</v>
       </c>
       <c r="D4">
-        <v>7.914469310214359</v>
+        <v>12.75297283732156</v>
       </c>
       <c r="E4">
-        <v>6.718656615602538</v>
+        <v>11.79238910498318</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.245461084826485</v>
+        <v>3.908754214424401</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.527738988628571</v>
+        <v>7.393678037850587</v>
       </c>
       <c r="K4">
-        <v>17.2195545874074</v>
+        <v>24.70249044663355</v>
       </c>
       <c r="L4">
-        <v>8.065140505101978</v>
+        <v>13.74500692672137</v>
       </c>
       <c r="M4">
-        <v>14.97180688425061</v>
+        <v>24.06980769068407</v>
       </c>
       <c r="N4">
-        <v>25.16556837465449</v>
+        <v>32.83165419688608</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.76288202188076</v>
+        <v>29.41291251248413</v>
       </c>
       <c r="C5">
-        <v>7.383148122514652</v>
+        <v>8.062017456161277</v>
       </c>
       <c r="D5">
-        <v>7.885284757014406</v>
+        <v>12.75716415609244</v>
       </c>
       <c r="E5">
-        <v>6.726663384396178</v>
+        <v>11.79832471092138</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.248504429225769</v>
+        <v>3.909855641487255</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.521855410362642</v>
+        <v>7.392244179716107</v>
       </c>
       <c r="K5">
-        <v>17.07303449202615</v>
+        <v>24.69629002569542</v>
       </c>
       <c r="L5">
-        <v>8.058305503507036</v>
+        <v>13.75205491075088</v>
       </c>
       <c r="M5">
-        <v>14.91431225895017</v>
+        <v>24.07745730691392</v>
       </c>
       <c r="N5">
-        <v>25.10931328934722</v>
+        <v>32.81578923611274</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.73081488530269</v>
+        <v>29.41113437282712</v>
       </c>
       <c r="C6">
-        <v>7.362903822948122</v>
+        <v>8.058426979624466</v>
       </c>
       <c r="D6">
-        <v>7.880501205693233</v>
+        <v>12.75789138674798</v>
       </c>
       <c r="E6">
-        <v>6.728020402927124</v>
+        <v>11.79932490893149</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.249012538034117</v>
+        <v>3.910040501687837</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.520879111118814</v>
+        <v>7.392004960395743</v>
       </c>
       <c r="K6">
-        <v>17.04878677795122</v>
+        <v>24.69534014034782</v>
       </c>
       <c r="L6">
-        <v>8.057229319074274</v>
+        <v>13.75325202323008</v>
       </c>
       <c r="M6">
-        <v>14.90488646907495</v>
+        <v>24.07878773138442</v>
       </c>
       <c r="N6">
-        <v>25.10003005105205</v>
+        <v>32.81316919475224</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.95383868228292</v>
+        <v>29.42405117061537</v>
       </c>
       <c r="C7">
-        <v>7.50292517118835</v>
+        <v>8.083535433341062</v>
       </c>
       <c r="D7">
-        <v>7.914071519681203</v>
+        <v>12.75302726681326</v>
       </c>
       <c r="E7">
-        <v>6.718762750830167</v>
+        <v>11.79246817654916</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.24550194481757</v>
+        <v>3.908768936732994</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.527659591790074</v>
+        <v>7.393658775897542</v>
       </c>
       <c r="K7">
-        <v>17.21757316613747</v>
+        <v>24.70240148530287</v>
       </c>
       <c r="L7">
-        <v>8.065044368530888</v>
+        <v>13.74510018174583</v>
       </c>
       <c r="M7">
-        <v>14.97102335745727</v>
+        <v>24.06990681937393</v>
       </c>
       <c r="N7">
-        <v>25.16480579870002</v>
+        <v>32.83143927795227</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.94760822226713</v>
+        <v>29.49522343920398</v>
       </c>
       <c r="C8">
-        <v>8.107761387693934</v>
+        <v>8.198786842414421</v>
       </c>
       <c r="D8">
-        <v>8.071361586418851</v>
+        <v>12.73610845076808</v>
       </c>
       <c r="E8">
-        <v>6.681944521858759</v>
+        <v>11.76432864894865</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.230393496951898</v>
+        <v>3.903443148419076</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.557725396273986</v>
+        <v>7.400793510215396</v>
       </c>
       <c r="K8">
-        <v>17.97338744578432</v>
+        <v>24.74512087538977</v>
       </c>
       <c r="L8">
-        <v>8.108269113061883</v>
+        <v>13.71302256996461</v>
       </c>
       <c r="M8">
-        <v>15.28061270439721</v>
+        <v>24.03947156935403</v>
       </c>
       <c r="N8">
-        <v>25.45928625323083</v>
+        <v>32.9141255993999</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.92028052579212</v>
+        <v>29.68520641213402</v>
       </c>
       <c r="C9">
-        <v>9.24214476622277</v>
+        <v>8.439148686877104</v>
       </c>
       <c r="D9">
-        <v>8.413336469506378</v>
+        <v>12.71926973327787</v>
       </c>
       <c r="E9">
-        <v>6.624630338042392</v>
+        <v>11.71672271614159</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.20194282685635</v>
+        <v>3.894016454912447</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.617729180758465</v>
+        <v>7.414206369540855</v>
       </c>
       <c r="K9">
-        <v>19.48787445077043</v>
+        <v>24.87013809102669</v>
       </c>
       <c r="L9">
-        <v>8.226420147543514</v>
+        <v>13.66410756629502</v>
       </c>
       <c r="M9">
-        <v>15.95282598708969</v>
+        <v>24.01125953358175</v>
       </c>
       <c r="N9">
-        <v>26.07026075533341</v>
+        <v>33.08352211726717</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.37783059104642</v>
+        <v>29.85493800452128</v>
       </c>
       <c r="C10">
-        <v>10.04261560364633</v>
+        <v>8.622937477400679</v>
       </c>
       <c r="D10">
-        <v>8.685786933128167</v>
+        <v>12.71685474121581</v>
       </c>
       <c r="E10">
-        <v>6.592012042330482</v>
+        <v>11.68633212282512</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.18154291302387</v>
+        <v>3.887702771987468</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.663023338414134</v>
+        <v>7.423716614174706</v>
       </c>
       <c r="K10">
-        <v>20.61607851020306</v>
+        <v>24.98678562526958</v>
       </c>
       <c r="L10">
-        <v>8.335560490672062</v>
+        <v>13.63668955107874</v>
       </c>
       <c r="M10">
-        <v>16.48801780881472</v>
+        <v>24.00971185055052</v>
       </c>
       <c r="N10">
-        <v>26.54230215691688</v>
+        <v>33.2122444769352</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.04218474798193</v>
+        <v>29.93854729575154</v>
       </c>
       <c r="C11">
-        <v>10.4192809866635</v>
+        <v>8.707768910614469</v>
       </c>
       <c r="D11">
-        <v>8.814567400391985</v>
+        <v>12.71791467382224</v>
       </c>
       <c r="E11">
-        <v>6.579339608268812</v>
+        <v>11.67349544317535</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.172316841277927</v>
+        <v>3.884961722510834</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.684039952267272</v>
+        <v>7.427970157557922</v>
       </c>
       <c r="K11">
-        <v>21.13241180746336</v>
+        <v>25.04514153292727</v>
       </c>
       <c r="L11">
-        <v>8.390537036236582</v>
+        <v>13.62606419966451</v>
       </c>
       <c r="M11">
-        <v>16.74095962199708</v>
+        <v>24.01316613049396</v>
       </c>
       <c r="N11">
-        <v>26.76280054171845</v>
+        <v>33.27169499452891</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.29396468069282</v>
+        <v>29.97111272321605</v>
       </c>
       <c r="C12">
-        <v>10.56877057834549</v>
+        <v>8.740039698826653</v>
       </c>
       <c r="D12">
-        <v>8.86405500290255</v>
+        <v>12.7186258812754</v>
       </c>
       <c r="E12">
-        <v>6.574862435773467</v>
+        <v>11.66877608470082</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.168825696085371</v>
+        <v>3.883942475885269</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.692072014348414</v>
+        <v>7.429570538440665</v>
       </c>
       <c r="K12">
-        <v>21.32840268240381</v>
+        <v>25.06799073163857</v>
       </c>
       <c r="L12">
-        <v>8.412165105561046</v>
+        <v>13.62230604755708</v>
       </c>
       <c r="M12">
-        <v>16.83816039453591</v>
+        <v>24.01507105501909</v>
       </c>
       <c r="N12">
-        <v>26.84719752953659</v>
+        <v>33.29433247152322</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.23972951181682</v>
+        <v>29.96405921355767</v>
       </c>
       <c r="C13">
-        <v>10.53665123498694</v>
+        <v>8.733083534017066</v>
       </c>
       <c r="D13">
-        <v>8.853364408255334</v>
+        <v>12.71845894044894</v>
       </c>
       <c r="E13">
-        <v>6.57581219644979</v>
+        <v>11.66978619231949</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.169577552315415</v>
+        <v>3.884161157785819</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.690338647226254</v>
+        <v>7.429226326032684</v>
       </c>
       <c r="K13">
-        <v>21.28617103622503</v>
+        <v>25.06303651196631</v>
       </c>
       <c r="L13">
-        <v>8.407470361925276</v>
+        <v>13.62310363083785</v>
       </c>
       <c r="M13">
-        <v>16.81716241447114</v>
+        <v>24.01463427024143</v>
       </c>
       <c r="N13">
-        <v>26.82897990235304</v>
+        <v>33.28945159342575</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.06289448225357</v>
+        <v>29.94120844117557</v>
       </c>
       <c r="C14">
-        <v>10.43161399523416</v>
+        <v>8.71042106905276</v>
       </c>
       <c r="D14">
-        <v>8.818624151367095</v>
+        <v>12.71796697944549</v>
       </c>
       <c r="E14">
-        <v>6.57896476055858</v>
+        <v>11.67310434331256</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.172029603314043</v>
+        <v>3.884877493795622</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.684699192410145</v>
+        <v>7.428102028514734</v>
       </c>
       <c r="K14">
-        <v>21.14852648440825</v>
+        <v>25.04700635787474</v>
       </c>
       <c r="L14">
-        <v>8.392299898318983</v>
+        <v>13.62574969567505</v>
       </c>
       <c r="M14">
-        <v>16.74892762169526</v>
+        <v>24.01331089503813</v>
       </c>
       <c r="N14">
-        <v>26.76972547187232</v>
+        <v>33.27355491286701</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.95460576417406</v>
+        <v>29.92732897952274</v>
       </c>
       <c r="C15">
-        <v>10.36705102059553</v>
+        <v>8.696557930173899</v>
       </c>
       <c r="D15">
-        <v>8.797439532648758</v>
+        <v>12.71770596970971</v>
       </c>
       <c r="E15">
-        <v>6.58093800198377</v>
+        <v>11.6751552346356</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.173531724368843</v>
+        <v>3.885318705862289</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.681254896215977</v>
+        <v>7.42741202010579</v>
       </c>
       <c r="K15">
-        <v>21.0642772714898</v>
+        <v>25.03728492692688</v>
       </c>
       <c r="L15">
-        <v>8.383114360470788</v>
+        <v>13.62740504837708</v>
       </c>
       <c r="M15">
-        <v>16.70731826200376</v>
+        <v>24.01257798137529</v>
       </c>
       <c r="N15">
-        <v>26.73354978003887</v>
+        <v>33.26383388431336</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.33443993519283</v>
+        <v>29.84960137569577</v>
       </c>
       <c r="C16">
-        <v>10.01913275228396</v>
+        <v>8.617415696381736</v>
       </c>
       <c r="D16">
-        <v>8.677470231344415</v>
+        <v>12.71682886249793</v>
       </c>
       <c r="E16">
-        <v>6.592884638567351</v>
+        <v>11.68719087293277</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.182146515283955</v>
+        <v>3.887884533401446</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.661659321104398</v>
+        <v>7.423437181540008</v>
       </c>
       <c r="K16">
-        <v>20.58239823418046</v>
+        <v>24.98307759676472</v>
       </c>
       <c r="L16">
-        <v>8.332078472436597</v>
+        <v>13.63742109818791</v>
       </c>
       <c r="M16">
-        <v>16.47168251102437</v>
+        <v>24.0095696938981</v>
       </c>
       <c r="N16">
-        <v>26.52801380343454</v>
+        <v>33.20837692305491</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.95431797133009</v>
+        <v>29.8035459210821</v>
       </c>
       <c r="C17">
-        <v>9.812573377631017</v>
+        <v>8.569157457613494</v>
       </c>
       <c r="D17">
-        <v>8.605128644156073</v>
+        <v>12.71684328128535</v>
       </c>
       <c r="E17">
-        <v>6.600775084885703</v>
+        <v>11.69482709297658</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.187441737081063</v>
+        <v>3.889492072287444</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.649753167934167</v>
+        <v>7.420980203092455</v>
       </c>
       <c r="K17">
-        <v>20.28757866705535</v>
+        <v>24.95117188498257</v>
       </c>
       <c r="L17">
-        <v>8.3021638043552</v>
+        <v>13.64403861538351</v>
       </c>
       <c r="M17">
-        <v>16.32958961874801</v>
+        <v>24.00878856167249</v>
       </c>
       <c r="N17">
-        <v>26.40344698931028</v>
+        <v>33.17458227453182</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.7358009489054</v>
+        <v>29.7776592242753</v>
       </c>
       <c r="C18">
-        <v>9.693115325659408</v>
+        <v>8.541517644273863</v>
       </c>
       <c r="D18">
-        <v>8.563973506846038</v>
+        <v>12.71705478734851</v>
       </c>
       <c r="E18">
-        <v>6.605516640185694</v>
+        <v>11.69931228305198</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.190492833437988</v>
+        <v>3.890429030790445</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.642942888937779</v>
+        <v>7.419560163121131</v>
       </c>
       <c r="K18">
-        <v>20.11829524995042</v>
+        <v>24.93331936389889</v>
       </c>
       <c r="L18">
-        <v>8.285456340010237</v>
+        <v>13.64801872086518</v>
       </c>
       <c r="M18">
-        <v>16.24874987737743</v>
+        <v>24.00873076024753</v>
       </c>
       <c r="N18">
-        <v>26.33233721957964</v>
+        <v>33.15522887234898</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.66183565738465</v>
+        <v>29.76899848312876</v>
       </c>
       <c r="C19">
-        <v>9.652555829513604</v>
+        <v>8.532180272482718</v>
       </c>
       <c r="D19">
-        <v>8.550116377876579</v>
+        <v>12.71716131642724</v>
       </c>
       <c r="E19">
-        <v>6.607156655175847</v>
+        <v>11.70084688549613</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.191526961643522</v>
+        <v>3.890748392688532</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.640643138317873</v>
+        <v>7.419078181894919</v>
       </c>
       <c r="K19">
-        <v>20.06102847003232</v>
+        <v>24.92736076366198</v>
       </c>
       <c r="L19">
-        <v>8.279883872469012</v>
+        <v>13.64939618640786</v>
       </c>
       <c r="M19">
-        <v>16.22153009412256</v>
+        <v>24.00877845647855</v>
       </c>
       <c r="N19">
-        <v>26.30835107794167</v>
+        <v>33.14869074678661</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.99477033160206</v>
+        <v>29.80838628429242</v>
       </c>
       <c r="C20">
-        <v>9.834628973337505</v>
+        <v>8.574282727145478</v>
       </c>
       <c r="D20">
-        <v>8.612782400603278</v>
+        <v>12.71682071825049</v>
       </c>
       <c r="E20">
-        <v>6.599914035320263</v>
+        <v>11.69400457871362</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.18687752575641</v>
+        <v>3.889319670270255</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.651016586273398</v>
+        <v>7.421242460873088</v>
       </c>
       <c r="K20">
-        <v>20.31893278605539</v>
+        <v>24.95451674753147</v>
       </c>
       <c r="L20">
-        <v>8.305296361687047</v>
+        <v>13.64331617429021</v>
       </c>
       <c r="M20">
-        <v>16.34462336708103</v>
+        <v>24.00883120438381</v>
       </c>
       <c r="N20">
-        <v>26.41665121010453</v>
+        <v>33.17817106535168</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.11482931233</v>
+        <v>29.94789585206126</v>
       </c>
       <c r="C21">
-        <v>10.4625125470924</v>
+        <v>8.71707382766472</v>
       </c>
       <c r="D21">
-        <v>8.828808397266709</v>
+        <v>12.71810307665178</v>
       </c>
       <c r="E21">
-        <v>6.578029960693546</v>
+        <v>11.6721258824025</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.171309351498367</v>
+        <v>3.884666581185016</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.686353517848977</v>
+        <v>7.428432541778399</v>
       </c>
       <c r="K21">
-        <v>21.18894300175506</v>
+        <v>25.05169450262919</v>
       </c>
       <c r="L21">
-        <v>8.396733487945662</v>
+        <v>13.6249652800751</v>
       </c>
       <c r="M21">
-        <v>16.76893086596033</v>
+        <v>24.01368341385232</v>
       </c>
       <c r="N21">
-        <v>26.787104918637</v>
+        <v>33.27822079502418</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.84808399316533</v>
+        <v>30.04433685948529</v>
       </c>
       <c r="C22">
-        <v>10.8945038777907</v>
+        <v>8.811239296663114</v>
       </c>
       <c r="D22">
-        <v>8.974214964016838</v>
+        <v>12.72074676471895</v>
       </c>
       <c r="E22">
-        <v>6.565607646600835</v>
+        <v>11.65865210080914</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.161146704284624</v>
+        <v>3.881734632251082</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.709884943276659</v>
+        <v>7.433071436439866</v>
       </c>
       <c r="K22">
-        <v>21.76030410349991</v>
+        <v>25.11957837901032</v>
       </c>
       <c r="L22">
-        <v>8.461235926706093</v>
+        <v>13.61451897336424</v>
       </c>
       <c r="M22">
-        <v>17.0545376641327</v>
+        <v>24.02033288327882</v>
       </c>
       <c r="N22">
-        <v>27.03449940519697</v>
+        <v>33.34433500958566</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.45660050616537</v>
+        <v>29.99238834364798</v>
       </c>
       <c r="C23">
-        <v>10.66482609428827</v>
+        <v>8.760913854737435</v>
       </c>
       <c r="D23">
-        <v>8.896212263283839</v>
+        <v>12.71917078713579</v>
       </c>
       <c r="E23">
-        <v>6.572061941040993</v>
+        <v>11.66576796287252</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.16657149280068</v>
+        <v>3.883289523966084</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.697280567085191</v>
+        <v>7.430601045796315</v>
       </c>
       <c r="K23">
-        <v>21.45508816079313</v>
+        <v>25.08295091932898</v>
       </c>
       <c r="L23">
-        <v>8.426360137267014</v>
+        <v>13.61995287923978</v>
       </c>
       <c r="M23">
-        <v>16.90132273280787</v>
+        <v>24.01646610991732</v>
       </c>
       <c r="N23">
-        <v>26.9019507510262</v>
+        <v>33.30898344996633</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.97648175720173</v>
+        <v>29.80619611347262</v>
       </c>
       <c r="C24">
-        <v>9.824659836360683</v>
+        <v>8.571965265109242</v>
       </c>
       <c r="D24">
-        <v>8.609320784156751</v>
+        <v>12.71683028598336</v>
       </c>
       <c r="E24">
-        <v>6.600302677326825</v>
+        <v>11.69437614139183</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.187132584124009</v>
+        <v>3.889397573459616</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.65044528772585</v>
+        <v>7.42112391746948</v>
       </c>
       <c r="K24">
-        <v>20.304756928602</v>
+        <v>24.95300300663943</v>
       </c>
       <c r="L24">
-        <v>8.303878606771221</v>
+        <v>13.64364224291835</v>
       </c>
       <c r="M24">
-        <v>16.33782396154026</v>
+        <v>24.00881070677791</v>
       </c>
       <c r="N24">
-        <v>26.41068001298971</v>
+        <v>33.1765483372916</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.38485568649869</v>
+        <v>29.62846831051642</v>
       </c>
       <c r="C25">
-        <v>8.941055103233264</v>
+        <v>8.372745962413619</v>
       </c>
       <c r="D25">
-        <v>8.317163673302383</v>
+        <v>12.72207578115998</v>
       </c>
       <c r="E25">
-        <v>6.6385014347332</v>
+        <v>11.72879376823655</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.209534271382783</v>
+        <v>3.896458557863818</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.601329652516775</v>
+        <v>7.410638881777902</v>
       </c>
       <c r="K25">
-        <v>19.07523619195261</v>
+        <v>24.83193379999848</v>
       </c>
       <c r="L25">
-        <v>8.190685688146703</v>
+        <v>13.67584349053365</v>
       </c>
       <c r="M25">
-        <v>15.76385548186774</v>
+        <v>24.01552199728835</v>
       </c>
       <c r="N25">
-        <v>25.90112775578486</v>
+        <v>33.03693492227386</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_185/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.51793756855773</v>
+        <v>22.2188019953181</v>
       </c>
       <c r="C2">
-        <v>8.231041776144481</v>
+        <v>8.268261749665553</v>
       </c>
       <c r="D2">
-        <v>12.73262989164373</v>
+        <v>8.116224407948479</v>
       </c>
       <c r="E2">
-        <v>11.75721815040084</v>
+        <v>6.672962120072068</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.902069260396217</v>
+        <v>2.226386708572199</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.402687214562372</v>
+        <v>4.565923446241278</v>
       </c>
       <c r="K2">
-        <v>24.75949731911664</v>
+        <v>18.18057564941208</v>
       </c>
       <c r="L2">
-        <v>13.70527809335086</v>
+        <v>8.122170777701262</v>
       </c>
       <c r="M2">
-        <v>24.03335456071629</v>
+        <v>15.36885143046796</v>
       </c>
       <c r="N2">
-        <v>32.93702529482636</v>
+        <v>25.54125248610842</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.45590054447274</v>
+        <v>21.43429534639357</v>
       </c>
       <c r="C3">
-        <v>8.138625573431337</v>
+        <v>7.798914026286771</v>
       </c>
       <c r="D3">
-        <v>12.74395807971209</v>
+        <v>7.988637730888835</v>
       </c>
       <c r="E3">
-        <v>11.77841584113204</v>
+        <v>6.700131965141773</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.906131233762383</v>
+        <v>2.238102043579041</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.397150935697447</v>
+        <v>4.542212076331944</v>
       </c>
       <c r="K3">
-        <v>24.72093980398493</v>
+        <v>17.58227356767327</v>
       </c>
       <c r="L3">
-        <v>13.72880034044123</v>
+        <v>8.08433429634667</v>
       </c>
       <c r="M3">
-        <v>24.05348281048499</v>
+        <v>15.117840291349</v>
       </c>
       <c r="N3">
-        <v>32.87116483055614</v>
+        <v>25.3060046562342</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.42421008718831</v>
+        <v>20.95645418786492</v>
       </c>
       <c r="C4">
-        <v>8.0838317434093</v>
+        <v>7.504556787668763</v>
       </c>
       <c r="D4">
-        <v>12.75297283732156</v>
+        <v>7.91446931021423</v>
       </c>
       <c r="E4">
-        <v>11.79238910498318</v>
+        <v>6.718656615602536</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.908754214424401</v>
+        <v>2.245461084826354</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.393678037850587</v>
+        <v>4.527738988628638</v>
       </c>
       <c r="K4">
-        <v>24.70249044663355</v>
+        <v>17.21955458740738</v>
       </c>
       <c r="L4">
-        <v>13.74500692672137</v>
+        <v>8.065140505102059</v>
       </c>
       <c r="M4">
-        <v>24.06980769068407</v>
+        <v>14.97180688425059</v>
       </c>
       <c r="N4">
-        <v>32.83165419688608</v>
+        <v>25.16556837465458</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.41291251248413</v>
+        <v>20.76288202188077</v>
       </c>
       <c r="C5">
-        <v>8.062017456161277</v>
+        <v>7.383148122514734</v>
       </c>
       <c r="D5">
-        <v>12.75716415609244</v>
+        <v>7.885284757014236</v>
       </c>
       <c r="E5">
-        <v>11.79832471092138</v>
+        <v>6.726663384395922</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.909855641487255</v>
+        <v>2.248504429226033</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.392244179716107</v>
+        <v>4.521855410362608</v>
       </c>
       <c r="K5">
-        <v>24.69629002569542</v>
+        <v>17.07303449202623</v>
       </c>
       <c r="L5">
-        <v>13.75205491075088</v>
+        <v>8.058305503506951</v>
       </c>
       <c r="M5">
-        <v>24.07745730691392</v>
+        <v>14.91431225895012</v>
       </c>
       <c r="N5">
-        <v>32.81578923611274</v>
+        <v>25.10931328934723</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.41113437282712</v>
+        <v>20.73081488530274</v>
       </c>
       <c r="C6">
-        <v>8.058426979624466</v>
+        <v>7.362903822948064</v>
       </c>
       <c r="D6">
-        <v>12.75789138674798</v>
+        <v>7.880501205693341</v>
       </c>
       <c r="E6">
-        <v>11.79932490893149</v>
+        <v>6.72802040292718</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.910040501687837</v>
+        <v>2.249012538033851</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.392004960395743</v>
+        <v>4.520879111118883</v>
       </c>
       <c r="K6">
-        <v>24.69534014034782</v>
+        <v>17.04878677795122</v>
       </c>
       <c r="L6">
-        <v>13.75325202323008</v>
+        <v>8.057229319074287</v>
       </c>
       <c r="M6">
-        <v>24.07878773138442</v>
+        <v>14.90488646907496</v>
       </c>
       <c r="N6">
-        <v>32.81316919475224</v>
+        <v>25.10003005105209</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.42405117061537</v>
+        <v>20.95383868228286</v>
       </c>
       <c r="C7">
-        <v>8.083535433341062</v>
+        <v>7.502925171188357</v>
       </c>
       <c r="D7">
-        <v>12.75302726681326</v>
+        <v>7.914071519681333</v>
       </c>
       <c r="E7">
-        <v>11.79246817654916</v>
+        <v>6.718762750830348</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.908768936732994</v>
+        <v>2.245501944817568</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.393658775897542</v>
+        <v>4.527659591790174</v>
       </c>
       <c r="K7">
-        <v>24.70240148530287</v>
+        <v>17.21757316613744</v>
       </c>
       <c r="L7">
-        <v>13.74510018174583</v>
+        <v>8.065044368530975</v>
       </c>
       <c r="M7">
-        <v>24.06990681937393</v>
+        <v>14.97102335745729</v>
       </c>
       <c r="N7">
-        <v>32.83143927795227</v>
+        <v>25.16480579869993</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.49522343920398</v>
+        <v>21.94760822226712</v>
       </c>
       <c r="C8">
-        <v>8.198786842414421</v>
+        <v>8.107761387693934</v>
       </c>
       <c r="D8">
-        <v>12.73610845076808</v>
+        <v>8.071361586418794</v>
       </c>
       <c r="E8">
-        <v>11.76432864894865</v>
+        <v>6.681944521858635</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.903443148419076</v>
+        <v>2.230393496951903</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.400793510215396</v>
+        <v>4.557725396273986</v>
       </c>
       <c r="K8">
-        <v>24.74512087538977</v>
+        <v>17.97338744578428</v>
       </c>
       <c r="L8">
-        <v>13.71302256996461</v>
+        <v>8.108269113061791</v>
       </c>
       <c r="M8">
-        <v>24.03947156935403</v>
+        <v>15.28061270439714</v>
       </c>
       <c r="N8">
-        <v>32.9141255993999</v>
+        <v>25.45928625323079</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.68520641213402</v>
+        <v>23.92028052579207</v>
       </c>
       <c r="C9">
-        <v>8.439148686877104</v>
+        <v>9.242144766222806</v>
       </c>
       <c r="D9">
-        <v>12.71926973327787</v>
+        <v>8.413336469506261</v>
       </c>
       <c r="E9">
-        <v>11.71672271614159</v>
+        <v>6.624630338042378</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.894016454912447</v>
+        <v>2.201942826856219</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.414206369540855</v>
+        <v>4.617729180758566</v>
       </c>
       <c r="K9">
-        <v>24.87013809102669</v>
+        <v>19.48787445077044</v>
       </c>
       <c r="L9">
-        <v>13.66410756629502</v>
+        <v>8.226420147543505</v>
       </c>
       <c r="M9">
-        <v>24.01125953358175</v>
+        <v>15.95282598708966</v>
       </c>
       <c r="N9">
-        <v>33.08352211726717</v>
+        <v>26.0702607553333</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.85493800452128</v>
+        <v>25.37783059104641</v>
       </c>
       <c r="C10">
-        <v>8.622937477400679</v>
+        <v>10.04261560364629</v>
       </c>
       <c r="D10">
-        <v>12.71685474121581</v>
+        <v>8.685786933128117</v>
       </c>
       <c r="E10">
-        <v>11.68633212282512</v>
+        <v>6.592012042330377</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.887702771987468</v>
+        <v>2.181542913023744</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.423716614174706</v>
+        <v>4.663023338414166</v>
       </c>
       <c r="K10">
-        <v>24.98678562526958</v>
+        <v>20.61607851020304</v>
       </c>
       <c r="L10">
-        <v>13.63668955107874</v>
+        <v>8.335560490672043</v>
       </c>
       <c r="M10">
-        <v>24.00971185055052</v>
+        <v>16.4880178088147</v>
       </c>
       <c r="N10">
-        <v>33.2122444769352</v>
+        <v>26.54230215691683</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.93854729575154</v>
+        <v>26.04218474798187</v>
       </c>
       <c r="C11">
-        <v>8.707768910614469</v>
+        <v>10.41928098666354</v>
       </c>
       <c r="D11">
-        <v>12.71791467382224</v>
+        <v>8.814567400392013</v>
       </c>
       <c r="E11">
-        <v>11.67349544317535</v>
+        <v>6.579339608268938</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.884961722510834</v>
+        <v>2.172316841277933</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.427970157557922</v>
+        <v>4.684039952267237</v>
       </c>
       <c r="K11">
-        <v>25.04514153292727</v>
+        <v>21.13241180746331</v>
       </c>
       <c r="L11">
-        <v>13.62606419966451</v>
+        <v>8.390537036236568</v>
       </c>
       <c r="M11">
-        <v>24.01316613049396</v>
+        <v>16.74095962199701</v>
       </c>
       <c r="N11">
-        <v>33.27169499452891</v>
+        <v>26.76280054171834</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.97111272321605</v>
+        <v>26.29396468069281</v>
       </c>
       <c r="C12">
-        <v>8.740039698826653</v>
+        <v>10.56877057834559</v>
       </c>
       <c r="D12">
-        <v>12.7186258812754</v>
+        <v>8.864055002902449</v>
       </c>
       <c r="E12">
-        <v>11.66877608470082</v>
+        <v>6.574862435773368</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.883942475885269</v>
+        <v>2.168825696085631</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.429570538440665</v>
+        <v>4.692072014348448</v>
       </c>
       <c r="K12">
-        <v>25.06799073163857</v>
+        <v>21.32840268240377</v>
       </c>
       <c r="L12">
-        <v>13.62230604755708</v>
+        <v>8.412165105560888</v>
       </c>
       <c r="M12">
-        <v>24.01507105501909</v>
+        <v>16.83816039453583</v>
       </c>
       <c r="N12">
-        <v>33.29433247152322</v>
+        <v>26.84719752953649</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.96405921355767</v>
+        <v>26.2397295118168</v>
       </c>
       <c r="C13">
-        <v>8.733083534017066</v>
+        <v>10.53665123498684</v>
       </c>
       <c r="D13">
-        <v>12.71845894044894</v>
+        <v>8.853364408255455</v>
       </c>
       <c r="E13">
-        <v>11.66978619231949</v>
+        <v>6.575812196449856</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.884161157785819</v>
+        <v>2.169577552315284</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.429226326032684</v>
+        <v>4.690338647226119</v>
       </c>
       <c r="K13">
-        <v>25.06303651196631</v>
+        <v>21.28617103622501</v>
       </c>
       <c r="L13">
-        <v>13.62310363083785</v>
+        <v>8.407470361925355</v>
       </c>
       <c r="M13">
-        <v>24.01463427024143</v>
+        <v>16.81716241447121</v>
       </c>
       <c r="N13">
-        <v>33.28945159342575</v>
+        <v>26.82897990235301</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.94120844117557</v>
+        <v>26.06289448225358</v>
       </c>
       <c r="C14">
-        <v>8.71042106905276</v>
+        <v>10.43161399523411</v>
       </c>
       <c r="D14">
-        <v>12.71796697944549</v>
+        <v>8.818624151367064</v>
       </c>
       <c r="E14">
-        <v>11.67310434331256</v>
+        <v>6.578964760558415</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.884877493795622</v>
+        <v>2.172029603314057</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.428102028514734</v>
+        <v>4.684699192410045</v>
       </c>
       <c r="K14">
-        <v>25.04700635787474</v>
+        <v>21.14852648440824</v>
       </c>
       <c r="L14">
-        <v>13.62574969567505</v>
+        <v>8.392299898318933</v>
       </c>
       <c r="M14">
-        <v>24.01331089503813</v>
+        <v>16.74892762169523</v>
       </c>
       <c r="N14">
-        <v>33.27355491286701</v>
+        <v>26.76972547187226</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.92732897952274</v>
+        <v>25.95460576417404</v>
       </c>
       <c r="C15">
-        <v>8.696557930173899</v>
+        <v>10.36705102059543</v>
       </c>
       <c r="D15">
-        <v>12.71770596970971</v>
+        <v>8.797439532648667</v>
       </c>
       <c r="E15">
-        <v>11.6751552346356</v>
+        <v>6.580938001983649</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.885318705862289</v>
+        <v>2.173531724368975</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.42741202010579</v>
+        <v>4.681254896215875</v>
       </c>
       <c r="K15">
-        <v>25.03728492692688</v>
+        <v>21.0642772714898</v>
       </c>
       <c r="L15">
-        <v>13.62740504837708</v>
+        <v>8.383114360470795</v>
       </c>
       <c r="M15">
-        <v>24.01257798137529</v>
+        <v>16.70731826200376</v>
       </c>
       <c r="N15">
-        <v>33.26383388431336</v>
+        <v>26.73354978003886</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.84960137569577</v>
+        <v>25.33443993519288</v>
       </c>
       <c r="C16">
-        <v>8.617415696381736</v>
+        <v>10.01913275228398</v>
       </c>
       <c r="D16">
-        <v>12.71682886249793</v>
+        <v>8.677470231344591</v>
       </c>
       <c r="E16">
-        <v>11.68719087293277</v>
+        <v>6.59288463856739</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.887884533401446</v>
+        <v>2.182146515284347</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.423437181540008</v>
+        <v>4.661659321104296</v>
       </c>
       <c r="K16">
-        <v>24.98307759676472</v>
+        <v>20.58239823418052</v>
       </c>
       <c r="L16">
-        <v>13.63742109818791</v>
+        <v>8.332078472436647</v>
       </c>
       <c r="M16">
-        <v>24.0095696938981</v>
+        <v>16.47168251102444</v>
       </c>
       <c r="N16">
-        <v>33.20837692305491</v>
+        <v>26.52801380343467</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.8035459210821</v>
+        <v>24.95431797133009</v>
       </c>
       <c r="C17">
-        <v>8.569157457613494</v>
+        <v>9.812573377630983</v>
       </c>
       <c r="D17">
-        <v>12.71684328128535</v>
+        <v>8.605128644156142</v>
       </c>
       <c r="E17">
-        <v>11.69482709297658</v>
+        <v>6.600775084885703</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.889492072287444</v>
+        <v>2.187441737081202</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.420980203092455</v>
+        <v>4.6497531679341</v>
       </c>
       <c r="K17">
-        <v>24.95117188498257</v>
+        <v>20.28757866705534</v>
       </c>
       <c r="L17">
-        <v>13.64403861538351</v>
+        <v>8.302163804355185</v>
       </c>
       <c r="M17">
-        <v>24.00878856167249</v>
+        <v>16.329589618748</v>
       </c>
       <c r="N17">
-        <v>33.17458227453182</v>
+        <v>26.40344698931027</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.7776592242753</v>
+        <v>24.7358009489054</v>
       </c>
       <c r="C18">
-        <v>8.541517644273863</v>
+        <v>9.693115325659404</v>
       </c>
       <c r="D18">
-        <v>12.71705478734851</v>
+        <v>8.563973506845855</v>
       </c>
       <c r="E18">
-        <v>11.69931228305198</v>
+        <v>6.605516640185691</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.890429030790445</v>
+        <v>2.190492833437718</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.419560163121131</v>
+        <v>4.642942888937911</v>
       </c>
       <c r="K18">
-        <v>24.93331936389889</v>
+        <v>20.11829524995043</v>
       </c>
       <c r="L18">
-        <v>13.64801872086518</v>
+        <v>8.285456340010288</v>
       </c>
       <c r="M18">
-        <v>24.00873076024753</v>
+        <v>16.24874987737745</v>
       </c>
       <c r="N18">
-        <v>33.15522887234898</v>
+        <v>26.3323372195796</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.76899848312876</v>
+        <v>24.66183565738464</v>
       </c>
       <c r="C19">
-        <v>8.532180272482718</v>
+        <v>9.65255582951365</v>
       </c>
       <c r="D19">
-        <v>12.71716131642724</v>
+        <v>8.550116377876513</v>
       </c>
       <c r="E19">
-        <v>11.70084688549613</v>
+        <v>6.607156655175904</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.890748392688532</v>
+        <v>2.191526961644044</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.419078181894919</v>
+        <v>4.640643138317905</v>
       </c>
       <c r="K19">
-        <v>24.92736076366198</v>
+        <v>20.06102847003227</v>
       </c>
       <c r="L19">
-        <v>13.64939618640786</v>
+        <v>8.279883872468911</v>
       </c>
       <c r="M19">
-        <v>24.00877845647855</v>
+        <v>16.22153009412251</v>
       </c>
       <c r="N19">
-        <v>33.14869074678661</v>
+        <v>26.30835107794163</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.80838628429242</v>
+        <v>24.9947703316021</v>
       </c>
       <c r="C20">
-        <v>8.574282727145478</v>
+        <v>9.834628973337468</v>
       </c>
       <c r="D20">
-        <v>12.71682071825049</v>
+        <v>8.612782400603226</v>
       </c>
       <c r="E20">
-        <v>11.69400457871362</v>
+        <v>6.599914035320334</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.889319670270255</v>
+        <v>2.186877525756014</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.421242460873088</v>
+        <v>4.651016586273496</v>
       </c>
       <c r="K20">
-        <v>24.95451674753147</v>
+        <v>20.31893278605543</v>
       </c>
       <c r="L20">
-        <v>13.64331617429021</v>
+        <v>8.305296361687089</v>
       </c>
       <c r="M20">
-        <v>24.00883120438381</v>
+        <v>16.34462336708108</v>
       </c>
       <c r="N20">
-        <v>33.17817106535168</v>
+        <v>26.41665121010464</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.94789585206126</v>
+        <v>26.11482931232997</v>
       </c>
       <c r="C21">
-        <v>8.71707382766472</v>
+        <v>10.46251254709238</v>
       </c>
       <c r="D21">
-        <v>12.71810307665178</v>
+        <v>8.828808397266693</v>
       </c>
       <c r="E21">
-        <v>11.6721258824025</v>
+        <v>6.578029960693351</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.884666581185016</v>
+        <v>2.171309351498506</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.428432541778399</v>
+        <v>4.686353517848881</v>
       </c>
       <c r="K21">
-        <v>25.05169450262919</v>
+        <v>21.18894300175504</v>
       </c>
       <c r="L21">
-        <v>13.6249652800751</v>
+        <v>8.396733487945509</v>
       </c>
       <c r="M21">
-        <v>24.01368341385232</v>
+        <v>16.76893086596024</v>
       </c>
       <c r="N21">
-        <v>33.27822079502418</v>
+        <v>26.78710491863696</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.04433685948529</v>
+        <v>26.84808399316531</v>
       </c>
       <c r="C22">
-        <v>8.811239296663114</v>
+        <v>10.89450387779062</v>
       </c>
       <c r="D22">
-        <v>12.72074676471895</v>
+        <v>8.97421496401688</v>
       </c>
       <c r="E22">
-        <v>11.65865210080914</v>
+        <v>6.565607646601017</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.881734632251082</v>
+        <v>2.161146704284364</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.433071436439866</v>
+        <v>4.709884943276759</v>
       </c>
       <c r="K22">
-        <v>25.11957837901032</v>
+        <v>21.76030410349989</v>
       </c>
       <c r="L22">
-        <v>13.61451897336424</v>
+        <v>8.461235926706248</v>
       </c>
       <c r="M22">
-        <v>24.02033288327882</v>
+        <v>17.05453766413275</v>
       </c>
       <c r="N22">
-        <v>33.34433500958566</v>
+        <v>27.03449940519706</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.99238834364798</v>
+        <v>26.45660050616538</v>
       </c>
       <c r="C23">
-        <v>8.760913854737435</v>
+        <v>10.66482609428811</v>
       </c>
       <c r="D23">
-        <v>12.71917078713579</v>
+        <v>8.896212263283699</v>
       </c>
       <c r="E23">
-        <v>11.66576796287252</v>
+        <v>6.572061941040833</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.883289523966084</v>
+        <v>2.166571492800565</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.430601045796315</v>
+        <v>4.697280567085224</v>
       </c>
       <c r="K23">
-        <v>25.08295091932898</v>
+        <v>21.45508816079314</v>
       </c>
       <c r="L23">
-        <v>13.61995287923978</v>
+        <v>8.426360137266975</v>
       </c>
       <c r="M23">
-        <v>24.01646610991732</v>
+        <v>16.90132273280787</v>
       </c>
       <c r="N23">
-        <v>33.30898344996633</v>
+        <v>26.90195075102618</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.80619611347262</v>
+        <v>24.97648175720178</v>
       </c>
       <c r="C24">
-        <v>8.571965265109242</v>
+        <v>9.824659836360626</v>
       </c>
       <c r="D24">
-        <v>12.71683028598336</v>
+        <v>8.609320784156719</v>
       </c>
       <c r="E24">
-        <v>11.69437614139183</v>
+        <v>6.600302677326873</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.889397573459616</v>
+        <v>2.187132584123886</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.42112391746948</v>
+        <v>4.650445287725884</v>
       </c>
       <c r="K24">
-        <v>24.95300300663943</v>
+        <v>20.30475692860203</v>
       </c>
       <c r="L24">
-        <v>13.64364224291835</v>
+        <v>8.303878606771258</v>
       </c>
       <c r="M24">
-        <v>24.00881070677791</v>
+        <v>16.33782396154032</v>
       </c>
       <c r="N24">
-        <v>33.1765483372916</v>
+        <v>26.41068001298966</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.62846831051642</v>
+        <v>23.38485568649872</v>
       </c>
       <c r="C25">
-        <v>8.372745962413619</v>
+        <v>8.941055103233277</v>
       </c>
       <c r="D25">
-        <v>12.72207578115998</v>
+        <v>8.317163673302192</v>
       </c>
       <c r="E25">
-        <v>11.72879376823655</v>
+        <v>6.638501434733198</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.896458557863818</v>
+        <v>2.209534271382786</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.410638881777902</v>
+        <v>4.601329652516842</v>
       </c>
       <c r="K25">
-        <v>24.83193379999848</v>
+        <v>19.07523619195263</v>
       </c>
       <c r="L25">
-        <v>13.67584349053365</v>
+        <v>8.190685688146743</v>
       </c>
       <c r="M25">
-        <v>24.01552199728835</v>
+        <v>15.76385548186775</v>
       </c>
       <c r="N25">
-        <v>33.03693492227386</v>
+        <v>25.90112775578491</v>
       </c>
       <c r="O25">
         <v>0</v>
